--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.7195445</v>
+        <v>42.27520199999999</v>
       </c>
       <c r="H2">
-        <v>47.439089</v>
+        <v>84.55040399999999</v>
       </c>
       <c r="I2">
-        <v>0.205848174769845</v>
+        <v>0.2947240430577394</v>
       </c>
       <c r="J2">
-        <v>0.1719138126598697</v>
+        <v>0.2751100172880195</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N2">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O2">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P2">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q2">
-        <v>355.5420961214675</v>
+        <v>869.7844640670839</v>
       </c>
       <c r="R2">
-        <v>1422.16838448587</v>
+        <v>3479.137856268336</v>
       </c>
       <c r="S2">
-        <v>0.01141931687372741</v>
+        <v>0.02193422349898801</v>
       </c>
       <c r="T2">
-        <v>0.006693964789392434</v>
+        <v>0.01456919185785227</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.7195445</v>
+        <v>42.27520199999999</v>
       </c>
       <c r="H3">
-        <v>47.439089</v>
+        <v>84.55040399999999</v>
       </c>
       <c r="I3">
-        <v>0.205848174769845</v>
+        <v>0.2947240430577394</v>
       </c>
       <c r="J3">
-        <v>0.1719138126598697</v>
+        <v>0.2751100172880195</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P3">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q3">
-        <v>1381.793758582938</v>
+        <v>2462.762734184585</v>
       </c>
       <c r="R3">
-        <v>8290.76255149763</v>
+        <v>14776.57640510751</v>
       </c>
       <c r="S3">
-        <v>0.0443805134624806</v>
+        <v>0.06210594747116244</v>
       </c>
       <c r="T3">
-        <v>0.03902355951823644</v>
+        <v>0.06187819670909303</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.7195445</v>
+        <v>42.27520199999999</v>
       </c>
       <c r="H4">
-        <v>47.439089</v>
+        <v>84.55040399999999</v>
       </c>
       <c r="I4">
-        <v>0.205848174769845</v>
+        <v>0.2947240430577394</v>
       </c>
       <c r="J4">
-        <v>0.1719138126598697</v>
+        <v>0.2751100172880195</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N4">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O4">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P4">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q4">
-        <v>1901.807389743306</v>
+        <v>2516.886660700337</v>
       </c>
       <c r="R4">
-        <v>11410.84433845984</v>
+        <v>15101.31996420202</v>
       </c>
       <c r="S4">
-        <v>0.06108233442167616</v>
+        <v>0.06347084458060051</v>
       </c>
       <c r="T4">
-        <v>0.05370938564810085</v>
+        <v>0.06323808855946207</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.7195445</v>
+        <v>42.27520199999999</v>
       </c>
       <c r="H5">
-        <v>47.439089</v>
+        <v>84.55040399999999</v>
       </c>
       <c r="I5">
-        <v>0.205848174769845</v>
+        <v>0.2947240430577394</v>
       </c>
       <c r="J5">
-        <v>0.1719138126598697</v>
+        <v>0.2751100172880195</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N5">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O5">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P5">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q5">
-        <v>609.7952855118309</v>
+        <v>1343.093059937268</v>
       </c>
       <c r="R5">
-        <v>2439.181142047324</v>
+        <v>5372.372239749072</v>
       </c>
       <c r="S5">
-        <v>0.01958543213118055</v>
+        <v>0.03387011906242968</v>
       </c>
       <c r="T5">
-        <v>0.01148091383406578</v>
+        <v>0.02249727522342446</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.7195445</v>
+        <v>42.27520199999999</v>
       </c>
       <c r="H6">
-        <v>47.439089</v>
+        <v>84.55040399999999</v>
       </c>
       <c r="I6">
-        <v>0.205848174769845</v>
+        <v>0.2947240430577394</v>
       </c>
       <c r="J6">
-        <v>0.1719138126598697</v>
+        <v>0.2751100172880195</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N6">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O6">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P6">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q6">
-        <v>278.1356634415339</v>
+        <v>1330.209706219502</v>
       </c>
       <c r="R6">
-        <v>1668.813980649204</v>
+        <v>7981.258237317012</v>
       </c>
       <c r="S6">
-        <v>0.008933173622394871</v>
+        <v>0.03354522666490325</v>
       </c>
       <c r="T6">
-        <v>0.007854894081722984</v>
+        <v>0.03342221186120397</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.7195445</v>
+        <v>42.27520199999999</v>
       </c>
       <c r="H7">
-        <v>47.439089</v>
+        <v>84.55040399999999</v>
       </c>
       <c r="I7">
-        <v>0.205848174769845</v>
+        <v>0.2947240430577394</v>
       </c>
       <c r="J7">
-        <v>0.1719138126598697</v>
+        <v>0.2751100172880195</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N7">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O7">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P7">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q7">
-        <v>1882.038746518553</v>
+        <v>3164.314610166877</v>
       </c>
       <c r="R7">
-        <v>11292.23247911132</v>
+        <v>18985.88766100126</v>
       </c>
       <c r="S7">
-        <v>0.06044740425838545</v>
+        <v>0.07979768177965553</v>
       </c>
       <c r="T7">
-        <v>0.05315109478835122</v>
+        <v>0.07950505307698373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>33.086472</v>
       </c>
       <c r="I8">
-        <v>0.09571276928432844</v>
+        <v>0.07688809149752213</v>
       </c>
       <c r="J8">
-        <v>0.1199015762925807</v>
+        <v>0.1076567284518188</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N8">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O8">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P8">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q8">
-        <v>165.31561989796</v>
+        <v>226.910796833808</v>
       </c>
       <c r="R8">
-        <v>991.89371938776</v>
+        <v>1361.464781002848</v>
       </c>
       <c r="S8">
-        <v>0.005309614440554277</v>
+        <v>0.005722236183448703</v>
       </c>
       <c r="T8">
-        <v>0.004668716942966984</v>
+        <v>0.005701251982988243</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>33.086472</v>
       </c>
       <c r="I9">
-        <v>0.09571276928432844</v>
+        <v>0.07688809149752213</v>
       </c>
       <c r="J9">
-        <v>0.1199015762925807</v>
+        <v>0.1076567284518188</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P9">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q9">
         <v>642.489579330232</v>
@@ -1013,10 +1013,10 @@
         <v>5782.406213972088</v>
       </c>
       <c r="S9">
-        <v>0.02063550891575212</v>
+        <v>0.01620230138729309</v>
       </c>
       <c r="T9">
-        <v>0.02721704688174901</v>
+        <v>0.02421432809269485</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>33.086472</v>
       </c>
       <c r="I10">
-        <v>0.09571276928432844</v>
+        <v>0.07688809149752213</v>
       </c>
       <c r="J10">
-        <v>0.1199015762925807</v>
+        <v>0.1076567284518188</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N10">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O10">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P10">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q10">
-        <v>884.279164103608</v>
+        <v>656.6095180056559</v>
       </c>
       <c r="R10">
-        <v>7958.512476932471</v>
+        <v>5909.485662050904</v>
       </c>
       <c r="S10">
-        <v>0.02840131756517534</v>
+        <v>0.01655837798269532</v>
       </c>
       <c r="T10">
-        <v>0.03745970088892497</v>
+        <v>0.02474648431551152</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>33.086472</v>
       </c>
       <c r="I11">
-        <v>0.09571276928432844</v>
+        <v>0.07688809149752213</v>
       </c>
       <c r="J11">
-        <v>0.1199015762925807</v>
+        <v>0.1076567284518188</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N11">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O11">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P11">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q11">
-        <v>283.535161475792</v>
+        <v>350.388319224816</v>
       </c>
       <c r="R11">
-        <v>1701.210968854752</v>
+        <v>2102.329915348896</v>
       </c>
       <c r="S11">
-        <v>0.009106594940671611</v>
+        <v>0.008836092184694519</v>
       </c>
       <c r="T11">
-        <v>0.008007382563885876</v>
+        <v>0.00880368906050558</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>33.086472</v>
       </c>
       <c r="I12">
-        <v>0.09571276928432844</v>
+        <v>0.07688809149752213</v>
       </c>
       <c r="J12">
-        <v>0.1199015762925807</v>
+        <v>0.1076567284518188</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N12">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O12">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P12">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q12">
-        <v>129.324122569888</v>
+        <v>347.0272887870907</v>
       </c>
       <c r="R12">
-        <v>1163.917103128992</v>
+        <v>3123.245599083816</v>
       </c>
       <c r="S12">
-        <v>0.00415363792685123</v>
+        <v>0.008751333723427863</v>
       </c>
       <c r="T12">
-        <v>0.005478409020415491</v>
+        <v>0.01307886212966875</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>33.086472</v>
       </c>
       <c r="I13">
-        <v>0.09571276928432844</v>
+        <v>0.07688809149752213</v>
       </c>
       <c r="J13">
-        <v>0.1199015762925807</v>
+        <v>0.1076567284518188</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N13">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O13">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P13">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q13">
-        <v>875.0873819070908</v>
+        <v>825.5115827988026</v>
       </c>
       <c r="R13">
-        <v>7875.786437163817</v>
+        <v>7429.604245189224</v>
       </c>
       <c r="S13">
-        <v>0.02810609549532385</v>
+        <v>0.02081775003596264</v>
       </c>
       <c r="T13">
-        <v>0.03707031999463836</v>
+        <v>0.03111211287044987</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.35583</v>
+        <v>1.895311666666667</v>
       </c>
       <c r="H14">
-        <v>16.06749</v>
+        <v>5.685935</v>
       </c>
       <c r="I14">
-        <v>0.04648014340568721</v>
+        <v>0.01321327612472443</v>
       </c>
       <c r="J14">
-        <v>0.05822673925661452</v>
+        <v>0.01850088943570933</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N14">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O14">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P14">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q14">
-        <v>80.28075853945001</v>
+        <v>38.99479042659</v>
       </c>
       <c r="R14">
-        <v>481.6845512367</v>
+        <v>233.96874255954</v>
       </c>
       <c r="S14">
-        <v>0.002578460977267732</v>
+        <v>0.0009833705749509164</v>
       </c>
       <c r="T14">
-        <v>0.002267227608732432</v>
+        <v>0.0009797644243814286</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.35583</v>
+        <v>1.895311666666667</v>
       </c>
       <c r="H15">
-        <v>16.06749</v>
+        <v>5.685935</v>
       </c>
       <c r="I15">
-        <v>0.04648014340568721</v>
+        <v>0.01321327612472443</v>
       </c>
       <c r="J15">
-        <v>0.05822673925661452</v>
+        <v>0.01850088943570933</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P15">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q15">
-        <v>312.00651707419</v>
+        <v>110.4123155303183</v>
       </c>
       <c r="R15">
-        <v>2808.05865366771</v>
+        <v>993.710839772865</v>
       </c>
       <c r="S15">
-        <v>0.01002103920746697</v>
+        <v>0.002784377631394437</v>
       </c>
       <c r="T15">
-        <v>0.01321717312749553</v>
+        <v>0.004161250422944364</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.35583</v>
+        <v>1.895311666666667</v>
       </c>
       <c r="H16">
-        <v>16.06749</v>
+        <v>5.685935</v>
       </c>
       <c r="I16">
-        <v>0.04648014340568721</v>
+        <v>0.01321327612472443</v>
       </c>
       <c r="J16">
-        <v>0.05822673925661452</v>
+        <v>0.01850088943570933</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N16">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O16">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P16">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q16">
-        <v>429.42464903611</v>
+        <v>112.8388375696717</v>
       </c>
       <c r="R16">
-        <v>3864.82184132499</v>
+        <v>1015.549538127045</v>
       </c>
       <c r="S16">
-        <v>0.01379227999785771</v>
+        <v>0.002845569661069838</v>
       </c>
       <c r="T16">
-        <v>0.01819122236531574</v>
+        <v>0.004252701868501361</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.35583</v>
+        <v>1.895311666666667</v>
       </c>
       <c r="H17">
-        <v>16.06749</v>
+        <v>5.685935</v>
       </c>
       <c r="I17">
-        <v>0.04648014340568721</v>
+        <v>0.01321327612472443</v>
       </c>
       <c r="J17">
-        <v>0.05822673925661452</v>
+        <v>0.01850088943570933</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N17">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O17">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P17">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q17">
-        <v>137.69066619314</v>
+        <v>60.21449515293</v>
       </c>
       <c r="R17">
-        <v>826.14399715884</v>
+        <v>361.28697091758</v>
       </c>
       <c r="S17">
-        <v>0.004422354947462869</v>
+        <v>0.001518489061516774</v>
       </c>
       <c r="T17">
-        <v>0.003888554188292141</v>
+        <v>0.001512920560350036</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.35583</v>
+        <v>1.895311666666667</v>
       </c>
       <c r="H18">
-        <v>16.06749</v>
+        <v>5.685935</v>
       </c>
       <c r="I18">
-        <v>0.04648014340568721</v>
+        <v>0.01321327612472443</v>
       </c>
       <c r="J18">
-        <v>0.05822673925661452</v>
+        <v>0.01850088943570933</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N18">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O18">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P18">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q18">
-        <v>62.80252684996</v>
+        <v>59.63689955428389</v>
       </c>
       <c r="R18">
-        <v>565.2227416496399</v>
+        <v>536.732095988555</v>
       </c>
       <c r="S18">
-        <v>0.0020170943536471</v>
+        <v>0.00150392325645112</v>
       </c>
       <c r="T18">
-        <v>0.002660431192284136</v>
+        <v>0.002247612255040612</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.35583</v>
+        <v>1.895311666666667</v>
       </c>
       <c r="H19">
-        <v>16.06749</v>
+        <v>5.685935</v>
       </c>
       <c r="I19">
-        <v>0.04648014340568721</v>
+        <v>0.01321327612472443</v>
       </c>
       <c r="J19">
-        <v>0.05822673925661452</v>
+        <v>0.01850088943570933</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N19">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O19">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P19">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q19">
-        <v>424.9609253569968</v>
+        <v>141.8647839377105</v>
       </c>
       <c r="R19">
-        <v>3824.64832821297</v>
+        <v>1276.783055439395</v>
       </c>
       <c r="S19">
-        <v>0.01364891392198482</v>
+        <v>0.003577545939341349</v>
       </c>
       <c r="T19">
-        <v>0.01800213077449454</v>
+        <v>0.005346639904491521</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>46.01855949999999</v>
+        <v>80.71158600000001</v>
       </c>
       <c r="H20">
-        <v>92.03711899999999</v>
+        <v>161.423172</v>
       </c>
       <c r="I20">
-        <v>0.3993683975934914</v>
+        <v>0.5626855419288699</v>
       </c>
       <c r="J20">
-        <v>0.33353195364945</v>
+        <v>0.5252385504817572</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N20">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O20">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P20">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q20">
-        <v>689.7912860476924</v>
+        <v>1660.587773726412</v>
       </c>
       <c r="R20">
-        <v>2759.16514419077</v>
+        <v>6642.351094905649</v>
       </c>
       <c r="S20">
-        <v>0.02215474723821018</v>
+        <v>0.041876700347447</v>
       </c>
       <c r="T20">
-        <v>0.01298703762846545</v>
+        <v>0.0278154219484402</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>46.01855949999999</v>
+        <v>80.71158600000001</v>
       </c>
       <c r="H21">
-        <v>92.03711899999999</v>
+        <v>161.423172</v>
       </c>
       <c r="I21">
-        <v>0.3993683975934914</v>
+        <v>0.5626855419288699</v>
       </c>
       <c r="J21">
-        <v>0.33353195364945</v>
+        <v>0.5252385504817572</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P21">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q21">
-        <v>2680.833870822333</v>
+        <v>4701.893233241899</v>
       </c>
       <c r="R21">
-        <v>16085.003224934</v>
+        <v>28211.35939945139</v>
       </c>
       <c r="S21">
-        <v>0.08610314162709636</v>
+        <v>0.1185723375237855</v>
       </c>
       <c r="T21">
-        <v>0.07571005402703897</v>
+        <v>0.1181375170060898</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>46.01855949999999</v>
+        <v>80.71158600000001</v>
       </c>
       <c r="H22">
-        <v>92.03711899999999</v>
+        <v>161.423172</v>
       </c>
       <c r="I22">
-        <v>0.3993683975934914</v>
+        <v>0.5626855419288699</v>
       </c>
       <c r="J22">
-        <v>0.33353195364945</v>
+        <v>0.5252385504817572</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N22">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O22">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P22">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q22">
-        <v>3689.718262610061</v>
+        <v>4805.226339719634</v>
       </c>
       <c r="R22">
-        <v>22138.30957566037</v>
+        <v>28831.35803831781</v>
       </c>
       <c r="S22">
-        <v>0.1185065354430732</v>
+        <v>0.1211781916703739</v>
       </c>
       <c r="T22">
-        <v>0.104202193223212</v>
+        <v>0.1207338151392544</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>46.01855949999999</v>
+        <v>80.71158600000001</v>
       </c>
       <c r="H23">
-        <v>92.03711899999999</v>
+        <v>161.423172</v>
       </c>
       <c r="I23">
-        <v>0.3993683975934914</v>
+        <v>0.5626855419288699</v>
       </c>
       <c r="J23">
-        <v>0.33353195364945</v>
+        <v>0.5252385504817572</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N23">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O23">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P23">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q23">
-        <v>1183.070805982201</v>
+        <v>2564.225973731125</v>
       </c>
       <c r="R23">
-        <v>4732.283223928804</v>
+        <v>10256.9038949245</v>
       </c>
       <c r="S23">
-        <v>0.03799792082271831</v>
+        <v>0.06466464731587879</v>
       </c>
       <c r="T23">
-        <v>0.02227425220527862</v>
+        <v>0.04295167564098435</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>46.01855949999999</v>
+        <v>80.71158600000001</v>
       </c>
       <c r="H24">
-        <v>92.03711899999999</v>
+        <v>161.423172</v>
       </c>
       <c r="I24">
-        <v>0.3993683975934914</v>
+        <v>0.5626855419288699</v>
       </c>
       <c r="J24">
-        <v>0.33353195364945</v>
+        <v>0.5252385504817572</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N24">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O24">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P24">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q24">
-        <v>539.6141809197139</v>
+        <v>2539.629144801487</v>
       </c>
       <c r="R24">
-        <v>3237.685085518283</v>
+        <v>15237.77486880892</v>
       </c>
       <c r="S24">
-        <v>0.01733135228907996</v>
+        <v>0.06404436451548672</v>
       </c>
       <c r="T24">
-        <v>0.01523936982288876</v>
+        <v>0.0638095053205372</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>46.01855949999999</v>
+        <v>80.71158600000001</v>
       </c>
       <c r="H25">
-        <v>92.03711899999999</v>
+        <v>161.423172</v>
       </c>
       <c r="I25">
-        <v>0.3993683975934914</v>
+        <v>0.5626855419288699</v>
       </c>
       <c r="J25">
-        <v>0.33353195364945</v>
+        <v>0.5252385504817572</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N25">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O25">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P25">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q25">
-        <v>3651.364891849818</v>
+        <v>6041.292263713854</v>
       </c>
       <c r="R25">
-        <v>21908.18935109891</v>
+        <v>36247.75358228313</v>
       </c>
       <c r="S25">
-        <v>0.1172747001733134</v>
+        <v>0.152349300555898</v>
       </c>
       <c r="T25">
-        <v>0.1031190467425663</v>
+        <v>0.1517906154264511</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>21.52362933333333</v>
+        <v>1.45427</v>
       </c>
       <c r="H26">
-        <v>64.570888</v>
+        <v>4.362810000000001</v>
       </c>
       <c r="I26">
-        <v>0.1867911001701303</v>
+        <v>0.01013852835280548</v>
       </c>
       <c r="J26">
-        <v>0.2339974855527565</v>
+        <v>0.01419570667603605</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N26">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O26">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P26">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q26">
-        <v>322.6266123835067</v>
+        <v>29.92064834034</v>
       </c>
       <c r="R26">
-        <v>1935.75967430104</v>
+        <v>179.52389004204</v>
       </c>
       <c r="S26">
-        <v>0.01036213590147094</v>
+        <v>0.0007545388714611772</v>
       </c>
       <c r="T26">
-        <v>0.009111373337961916</v>
+        <v>0.0007517718771557433</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>21.52362933333333</v>
+        <v>1.45427</v>
       </c>
       <c r="H27">
-        <v>64.570888</v>
+        <v>4.362810000000001</v>
       </c>
       <c r="I27">
-        <v>0.1867911001701303</v>
+        <v>0.01013852835280548</v>
       </c>
       <c r="J27">
-        <v>0.2339974855527565</v>
+        <v>0.01419570667603605</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P27">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q27">
-        <v>1253.869637962595</v>
+        <v>84.71921580511001</v>
       </c>
       <c r="R27">
-        <v>11284.82674166335</v>
+        <v>762.4729422459901</v>
       </c>
       <c r="S27">
-        <v>0.04027184086057987</v>
+        <v>0.002136449075486084</v>
       </c>
       <c r="T27">
-        <v>0.05311623692886217</v>
+        <v>0.003192921649249579</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>21.52362933333333</v>
+        <v>1.45427</v>
       </c>
       <c r="H28">
-        <v>64.570888</v>
+        <v>4.362810000000001</v>
       </c>
       <c r="I28">
-        <v>0.1867911001701303</v>
+        <v>0.01013852835280548</v>
       </c>
       <c r="J28">
-        <v>0.2339974855527565</v>
+        <v>0.01419570667603605</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N28">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O28">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P28">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q28">
-        <v>1725.741289856099</v>
+        <v>86.58108278363001</v>
       </c>
       <c r="R28">
-        <v>15531.67160870489</v>
+        <v>779.2297450526701</v>
       </c>
       <c r="S28">
-        <v>0.05542743558616252</v>
+        <v>0.002183401634561792</v>
       </c>
       <c r="T28">
-        <v>0.0731055928420617</v>
+        <v>0.0032630922159533</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>21.52362933333333</v>
+        <v>1.45427</v>
       </c>
       <c r="H29">
-        <v>64.570888</v>
+        <v>4.362810000000001</v>
       </c>
       <c r="I29">
-        <v>0.1867911001701303</v>
+        <v>0.01013852835280548</v>
       </c>
       <c r="J29">
-        <v>0.2339974855527565</v>
+        <v>0.01419570667603605</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N29">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O29">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P29">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q29">
-        <v>553.3414730865013</v>
+        <v>46.20249819918001</v>
       </c>
       <c r="R29">
-        <v>3320.048838519008</v>
+        <v>277.2149891950801</v>
       </c>
       <c r="S29">
-        <v>0.01777224607009999</v>
+        <v>0.001165134540313247</v>
       </c>
       <c r="T29">
-        <v>0.01562704547966999</v>
+        <v>0.00116086183712982</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>21.52362933333333</v>
+        <v>1.45427</v>
       </c>
       <c r="H30">
-        <v>64.570888</v>
+        <v>4.362810000000001</v>
       </c>
       <c r="I30">
-        <v>0.1867911001701303</v>
+        <v>0.01013852835280548</v>
       </c>
       <c r="J30">
-        <v>0.2339974855527565</v>
+        <v>0.01419570667603605</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N30">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O30">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P30">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q30">
-        <v>252.3863358462186</v>
+        <v>45.75930990143667</v>
       </c>
       <c r="R30">
-        <v>2271.477022615968</v>
+        <v>411.8337891129301</v>
       </c>
       <c r="S30">
-        <v>0.008106155572200716</v>
+        <v>0.001153958218389326</v>
       </c>
       <c r="T30">
-        <v>0.01069155198159049</v>
+        <v>0.001724589750395271</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>21.52362933333333</v>
+        <v>1.45427</v>
       </c>
       <c r="H31">
-        <v>64.570888</v>
+        <v>4.362810000000001</v>
       </c>
       <c r="I31">
-        <v>0.1867911001701303</v>
+        <v>0.01013852835280548</v>
       </c>
       <c r="J31">
-        <v>0.2339974855527565</v>
+        <v>0.01419570667603605</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N31">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O31">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P31">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q31">
-        <v>1707.802794064474</v>
+        <v>108.8526509731967</v>
       </c>
       <c r="R31">
-        <v>15370.22514658026</v>
+        <v>979.6738587587701</v>
       </c>
       <c r="S31">
-        <v>0.05485128617961628</v>
+        <v>0.002745046012593854</v>
       </c>
       <c r="T31">
-        <v>0.07234568498261024</v>
+        <v>0.004102469346152331</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.581957666666665</v>
+        <v>6.074756333333333</v>
       </c>
       <c r="H32">
-        <v>22.745873</v>
+        <v>18.224269</v>
       </c>
       <c r="I32">
-        <v>0.06579941477651759</v>
+        <v>0.04235051903833857</v>
       </c>
       <c r="J32">
-        <v>0.08242843258872844</v>
+        <v>0.05929810766665904</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N32">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O32">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P32">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q32">
-        <v>113.6491099780983</v>
+        <v>124.984114368666</v>
       </c>
       <c r="R32">
-        <v>681.8946598685899</v>
+        <v>749.904686211996</v>
       </c>
       <c r="S32">
-        <v>0.003650187174498799</v>
+        <v>0.003151849235805573</v>
       </c>
       <c r="T32">
-        <v>0.003209590997120372</v>
+        <v>0.003140290985837389</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.581957666666665</v>
+        <v>6.074756333333333</v>
       </c>
       <c r="H33">
-        <v>22.745873</v>
+        <v>18.224269</v>
       </c>
       <c r="I33">
-        <v>0.06579941477651759</v>
+        <v>0.04235051903833857</v>
       </c>
       <c r="J33">
-        <v>0.08242843258872844</v>
+        <v>0.05929810766665904</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P33">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q33">
-        <v>441.6906817767962</v>
+        <v>353.8879250532057</v>
       </c>
       <c r="R33">
-        <v>3975.216135991167</v>
+        <v>3184.991325478851</v>
       </c>
       <c r="S33">
-        <v>0.01418624098356771</v>
+        <v>0.008924345239985167</v>
       </c>
       <c r="T33">
-        <v>0.01871083419856033</v>
+        <v>0.013337427720173</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.581957666666665</v>
+        <v>6.074756333333333</v>
       </c>
       <c r="H34">
-        <v>22.745873</v>
+        <v>18.224269</v>
       </c>
       <c r="I34">
-        <v>0.06579941477651759</v>
+        <v>0.04235051903833857</v>
       </c>
       <c r="J34">
-        <v>0.08242843258872844</v>
+        <v>0.05929810766665904</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N34">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O34">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P34">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q34">
-        <v>607.9131544531801</v>
+        <v>361.6652897926203</v>
       </c>
       <c r="R34">
-        <v>5471.218390078621</v>
+        <v>3254.987608133583</v>
       </c>
       <c r="S34">
-        <v>0.01952498176203699</v>
+        <v>0.009120474814006062</v>
       </c>
       <c r="T34">
-        <v>0.02575232557395284</v>
+        <v>0.01363054323138964</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.581957666666665</v>
+        <v>6.074756333333333</v>
       </c>
       <c r="H35">
-        <v>22.745873</v>
+        <v>18.224269</v>
       </c>
       <c r="I35">
-        <v>0.06579941477651759</v>
+        <v>0.04235051903833857</v>
       </c>
       <c r="J35">
-        <v>0.08242843258872844</v>
+        <v>0.05929810766665904</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N35">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O35">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P35">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q35">
-        <v>194.9211984270446</v>
+        <v>192.996430202982</v>
       </c>
       <c r="R35">
-        <v>1169.527190562268</v>
+        <v>1157.978581217892</v>
       </c>
       <c r="S35">
-        <v>0.006260487729938658</v>
+        <v>0.004866983729261633</v>
       </c>
       <c r="T35">
-        <v>0.005504814984824084</v>
+        <v>0.004849135853197371</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.581957666666665</v>
+        <v>6.074756333333333</v>
       </c>
       <c r="H36">
-        <v>22.745873</v>
+        <v>18.224269</v>
       </c>
       <c r="I36">
-        <v>0.06579941477651759</v>
+        <v>0.04235051903833857</v>
       </c>
       <c r="J36">
-        <v>0.08242843258872844</v>
+        <v>0.05929810766665904</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N36">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O36">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P36">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q36">
-        <v>88.90612658282531</v>
+        <v>191.1451502353175</v>
       </c>
       <c r="R36">
-        <v>800.1551392454278</v>
+        <v>1720.306352117857</v>
       </c>
       <c r="S36">
-        <v>0.002855490932129039</v>
+        <v>0.004820298153412095</v>
       </c>
       <c r="T36">
-        <v>0.003766227956260345</v>
+        <v>0.007203932219337141</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.581957666666665</v>
+        <v>6.074756333333333</v>
       </c>
       <c r="H37">
-        <v>22.745873</v>
+        <v>18.224269</v>
       </c>
       <c r="I37">
-        <v>0.06579941477651759</v>
+        <v>0.04235051903833857</v>
       </c>
       <c r="J37">
-        <v>0.08242843258872844</v>
+        <v>0.05929810766665904</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N37">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O37">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P37">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q37">
-        <v>601.5941032564965</v>
+        <v>454.6977733842747</v>
       </c>
       <c r="R37">
-        <v>5414.346929308468</v>
+        <v>4092.279960458472</v>
       </c>
       <c r="S37">
-        <v>0.01932202619434639</v>
+        <v>0.01146656786586804</v>
       </c>
       <c r="T37">
-        <v>0.02548463887801047</v>
+        <v>0.01713677765672449</v>
       </c>
     </row>
   </sheetData>
